--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_23_28.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_23_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1953104.81493976</v>
+        <v>1950852.735228552</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283203</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -662,19 +662,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>114.4918089738222</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>48.8314194163271</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292595</v>
@@ -722,10 +722,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>62.48572255349474</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,13 +865,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>256.6811857025932</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -905,7 +905,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -914,7 +914,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,16 +944,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>82.99473116157577</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>108.9812949757276</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -978,10 +978,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646384</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>157.6450804553998</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1057,10 +1057,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>31.78085380126495</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,13 +1102,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>211.1292385528624</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>128.2538703177676</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>25.8785990645171</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,16 +1181,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>39.14465585226957</v>
+        <v>81.77200357366304</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1528,7 +1528,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503993</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1537,13 +1537,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1588,10 +1588,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365891</v>
       </c>
       <c r="X13" t="n">
-        <v>140.9357387834172</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1619,10 +1619,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187867</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1762,16 +1762,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1780,10 +1780,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>121.8000472740356</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1828,10 +1828,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>210.6850032871176</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1898,7 +1898,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881304</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2005,19 +2005,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2132,7 +2132,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576179</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2248,16 +2248,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>21.90286287505374</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187863</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2479,7 +2479,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>113.6427030833203</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2494,7 +2494,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2530,10 +2530,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2719,19 +2719,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892427899</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>31.8302520576399</v>
       </c>
     </row>
     <row r="32">
@@ -3044,7 +3044,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444144</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3184,13 +3184,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>139.5115415340516</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,7 +3199,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3427,16 +3427,16 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>123.9815576456734</v>
+        <v>121.8000472740347</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3664,7 +3664,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3676,10 +3676,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,22 +3901,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>20.88994825141578</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>160.1763464053464</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4141,19 +4141,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>62.64725059288511</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1681.836054204827</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="C2" t="n">
-        <v>1312.873537264415</v>
+        <v>1329.547110979148</v>
       </c>
       <c r="D2" t="n">
-        <v>954.6078386576646</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E2" t="n">
-        <v>568.8195860594203</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
-        <v>157.8336812698128</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180638</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X2" t="n">
-        <v>2071.975386180638</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y2" t="n">
-        <v>1681.836054204827</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4383,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
         <v>160.189385922801</v>
@@ -4419,40 +4419,40 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>692.8974549201675</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C4" t="n">
-        <v>523.9612719922607</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D4" t="n">
-        <v>373.8446325799249</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E4" t="n">
-        <v>310.7277411117484</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F4" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G4" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H4" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L4" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181849</v>
+        <v>729.2011216450114</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181849</v>
+        <v>507.4345062145375</v>
       </c>
       <c r="U4" t="n">
-        <v>920.8870058181849</v>
+        <v>248.1605812624231</v>
       </c>
       <c r="V4" t="n">
-        <v>920.8870058181849</v>
+        <v>248.1605812624231</v>
       </c>
       <c r="W4" t="n">
-        <v>920.8870058181849</v>
+        <v>248.1605812624231</v>
       </c>
       <c r="X4" t="n">
-        <v>692.8974549201675</v>
+        <v>248.1605812624231</v>
       </c>
       <c r="Y4" t="n">
-        <v>692.8974549201675</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2345.167438673965</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F5" t="n">
         <v>821.1650657389509</v>
@@ -4562,16 +4562,16 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810554</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001388</v>
@@ -4580,37 +4580,37 @@
         <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3241.772759829801</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3035.795012214023</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136266</v>
+        <v>3035.795012214023</v>
       </c>
       <c r="V5" t="n">
-        <v>3215.315153136266</v>
+        <v>2704.732124870452</v>
       </c>
       <c r="W5" t="n">
-        <v>3215.315153136266</v>
+        <v>2704.732124870452</v>
       </c>
       <c r="X5" t="n">
-        <v>2841.849394875186</v>
+        <v>2331.266366609372</v>
       </c>
       <c r="Y5" t="n">
-        <v>2731.767278738087</v>
+        <v>1941.127034633561</v>
       </c>
     </row>
     <row r="6">
@@ -4620,13 +4620,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E6" t="n">
         <v>458.9189605332749</v>
@@ -4635,22 +4635,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4662,31 +4662,31 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y6" t="n">
         <v>1109.759191501176</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>163.8377936138381</v>
+        <v>246.5270825411068</v>
       </c>
       <c r="C7" t="n">
-        <v>163.8377936138381</v>
+        <v>246.5270825411068</v>
       </c>
       <c r="D7" t="n">
-        <v>163.8377936138381</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962283</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181849</v>
+        <v>729.201121645011</v>
       </c>
       <c r="T7" t="n">
-        <v>707.6251486940814</v>
+        <v>729.201121645011</v>
       </c>
       <c r="U7" t="n">
-        <v>418.522281819725</v>
+        <v>729.201121645011</v>
       </c>
       <c r="V7" t="n">
-        <v>163.8377936138381</v>
+        <v>474.5166334391241</v>
       </c>
       <c r="W7" t="n">
-        <v>163.8377936138381</v>
+        <v>474.5166334391241</v>
       </c>
       <c r="X7" t="n">
-        <v>163.8377936138381</v>
+        <v>246.5270825411068</v>
       </c>
       <c r="Y7" t="n">
-        <v>163.8377936138381</v>
+        <v>246.5270825411068</v>
       </c>
     </row>
     <row r="8">
@@ -4778,49 +4778,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1616.654488422265</v>
+        <v>1308.370295943747</v>
       </c>
       <c r="C8" t="n">
-        <v>1247.691971481853</v>
+        <v>939.4077790033357</v>
       </c>
       <c r="D8" t="n">
-        <v>889.426272875103</v>
+        <v>809.8584150459947</v>
       </c>
       <c r="E8" t="n">
-        <v>503.6380202768588</v>
+        <v>424.0701624477504</v>
       </c>
       <c r="F8" t="n">
-        <v>92.65211548725119</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052368</v>
@@ -4829,25 +4829,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3119.628073993393</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>3119.628073993393</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2766.859418723278</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>2393.393660462199</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y8" t="n">
-        <v>2003.254328486387</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="9">
@@ -4884,22 +4884,22 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>310.7277411117484</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C10" t="n">
-        <v>310.7277411117484</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D10" t="n">
-        <v>310.7277411117484</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E10" t="n">
-        <v>310.7277411117484</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
@@ -4984,28 +4984,28 @@
         <v>920.8870058181845</v>
       </c>
       <c r="R10" t="n">
-        <v>831.0565485757124</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S10" t="n">
-        <v>639.3706644025388</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T10" t="n">
-        <v>599.8306079861048</v>
+        <v>838.2890224104441</v>
       </c>
       <c r="U10" t="n">
-        <v>310.7277411117484</v>
+        <v>549.1861555360877</v>
       </c>
       <c r="V10" t="n">
-        <v>310.7277411117484</v>
+        <v>294.5016673302007</v>
       </c>
       <c r="W10" t="n">
-        <v>310.7277411117484</v>
+        <v>294.5016673302007</v>
       </c>
       <c r="X10" t="n">
-        <v>310.7277411117484</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="Y10" t="n">
-        <v>310.7277411117484</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,31 +5027,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.422291068011</v>
@@ -5060,13 +5060,13 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474785</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L12" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="M12" t="n">
-        <v>1174.766565373399</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N12" t="n">
-        <v>1802.364528928006</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>2354.274259167293</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>849.3843576263199</v>
+        <v>513.8536007400737</v>
       </c>
       <c r="C13" t="n">
-        <v>680.448174698413</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D13" t="n">
-        <v>530.3315352860773</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E13" t="n">
-        <v>382.4184417036842</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611861</v>
       </c>
       <c r="X13" t="n">
-        <v>1251.82540160009</v>
+        <v>916.2946447138436</v>
       </c>
       <c r="Y13" t="n">
-        <v>1031.03282245656</v>
+        <v>695.5020655703134</v>
       </c>
     </row>
     <row r="14">
@@ -5264,43 +5264,43 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
         <v>4606.285157492579</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>315.9123021921471</v>
       </c>
       <c r="L15" t="n">
-        <v>93.81666304797187</v>
+        <v>315.9123021921471</v>
       </c>
       <c r="M15" t="n">
-        <v>691.1951506745238</v>
+        <v>913.2907898186992</v>
       </c>
       <c r="N15" t="n">
-        <v>1318.79311422913</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O15" t="n">
-        <v>1870.702844468417</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P15" t="n">
-        <v>2294.325993963485</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>931.4710609784063</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C16" t="n">
-        <v>762.5348780504994</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="D16" t="n">
-        <v>612.4182386381636</v>
+        <v>363.7369613277364</v>
       </c>
       <c r="E16" t="n">
-        <v>464.5051450557705</v>
+        <v>363.7369613277364</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578602</v>
+        <v>216.847013829826</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>216.847013829826</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>931.4710609784063</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y16" t="n">
-        <v>931.4710609784063</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168593</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,13 +5510,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5534,7 +5534,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5546,19 +5546,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5595,25 +5595,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M18" t="n">
-        <v>691.1951506745238</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N18" t="n">
-        <v>1318.79311422913</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O18" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5765,7 +5765,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5774,28 +5774,28 @@
         <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,31 +5823,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>680.0291294438176</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2204.627616639638</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
         <v>2516.421633107662</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5963,31 +5963,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362693</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -6008,31 +6008,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>150.8995423128889</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>484.8243144841095</v>
       </c>
       <c r="L24" t="n">
-        <v>680.0291294438176</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6178,19 +6178,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="26">
@@ -6212,40 +6212,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6297,31 +6297,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>680.0291294438176</v>
+        <v>943.510265746755</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400685</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121616</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121616</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121616</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121616</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270415</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6397,37 +6397,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279799</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853358</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580258</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.91737983266</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487564</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510506</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854703</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648816</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611856</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138384</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703082</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6449,7 +6449,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362687</v>
@@ -6458,7 +6458,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
         <v>378.192580311172</v>
@@ -6546,22 +6546,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>702.4944101284095</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6664,7 +6664,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>884.1428749586493</v>
       </c>
     </row>
     <row r="32">
@@ -6677,28 +6677,28 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362692</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6713,34 +6713,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,25 +6771,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>680.0291294438176</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O33" t="n">
         <v>1859.536823237711</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6920,52 +6920,52 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466572</v>
@@ -7008,28 +7008,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N36" t="n">
-        <v>1671.859558793925</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
         <v>2283.159972732779</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400667</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>513.8536007400667</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D37" t="n">
-        <v>513.8536007400667</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E37" t="n">
-        <v>365.9405071576736</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F37" t="n">
-        <v>219.0505596597632</v>
+        <v>216.8470138298251</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7108,37 +7108,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279798</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853356</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832658</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487563</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510504</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854702</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648815</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611854</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138365</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703064</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7148,43 +7148,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075796</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N39" t="n">
-        <v>1671.859558793925</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2526.197884723913</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2526.197884723913</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7400,31 +7400,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7488,28 +7488,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>671.2000270096659</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.793114229131</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O42" t="n">
-        <v>1870.702844468418</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P42" t="n">
-        <v>2294.325993963486</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
-        <v>2527.587654338369</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7634,34 +7634,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7728,22 +7728,22 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L45" t="n">
-        <v>680.0291294438176</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>445.6984928076085</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>298.8085453096982</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>298.8085453096982</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>157.0967141518962</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -9647,7 +9647,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>46.45968844822855</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016536</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>84.77391660561995</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,16 +23650,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.831980181947</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>18.49466557218697</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>15.02465210191954</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23893,19 +23893,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24136,16 +24136,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>143.6212754172151</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24367,7 +24367,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>34.97276993489203</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,10 +24418,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24607,19 +24607,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>119.4047645948081</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>57.2291039219449</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24841,19 +24841,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>186.7544012944549</v>
       </c>
     </row>
     <row r="32">
@@ -25072,13 +25072,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>40.32043864788571</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25087,7 +25087,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25315,16 +25315,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>41.54258064659543</v>
+        <v>43.72409101823415</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -25552,7 +25552,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>146.8157004124962</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,7 +25837,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>57.22910392194191</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26029,19 +26029,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>18.61858572568042</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>861532.6408697895</v>
+        <v>861532.6408697898</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>861532.6408697895</v>
+        <v>861532.6408697898</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>861532.6408697896</v>
+        <v>861532.6408697898</v>
       </c>
     </row>
     <row r="10">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>861532.6408697895</v>
+        <v>861532.6408697896</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>861532.6408697896</v>
+        <v>861532.6408697898</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>861532.6408697896</v>
+        <v>861532.6408697898</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049986</v>
+        <v>574729.2389049985</v>
       </c>
       <c r="C2" t="n">
         <v>574729.2389049985</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049985</v>
+        <v>574729.2389049982</v>
       </c>
       <c r="E2" t="n">
+        <v>565002.6197830046</v>
+      </c>
+      <c r="F2" t="n">
+        <v>565002.6197830046</v>
+      </c>
+      <c r="G2" t="n">
         <v>565002.6197830044</v>
-      </c>
-      <c r="F2" t="n">
-        <v>565002.6197830043</v>
-      </c>
-      <c r="G2" t="n">
-        <v>565002.6197830045</v>
       </c>
       <c r="H2" t="n">
         <v>565002.6197830045</v>
       </c>
       <c r="I2" t="n">
+        <v>565002.6197830045</v>
+      </c>
+      <c r="J2" t="n">
+        <v>565002.6197830045</v>
+      </c>
+      <c r="K2" t="n">
+        <v>565002.6197830047</v>
+      </c>
+      <c r="L2" t="n">
         <v>565002.6197830046</v>
       </c>
-      <c r="J2" t="n">
+      <c r="M2" t="n">
         <v>565002.6197830044</v>
       </c>
-      <c r="K2" t="n">
-        <v>565002.6197830044</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
+        <v>565002.6197830043</v>
+      </c>
+      <c r="O2" t="n">
+        <v>565002.6197830046</v>
+      </c>
+      <c r="P2" t="n">
         <v>565002.6197830045</v>
-      </c>
-      <c r="M2" t="n">
-        <v>565002.6197830046</v>
-      </c>
-      <c r="N2" t="n">
-        <v>565002.6197830044</v>
-      </c>
-      <c r="O2" t="n">
-        <v>565002.6197830045</v>
-      </c>
-      <c r="P2" t="n">
-        <v>565002.6197830047</v>
       </c>
     </row>
     <row r="3">
@@ -26372,10 +26372,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073556</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972773</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.540129233035259e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,28 +26415,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405257</v>
+        <v>93596.74410405252</v>
       </c>
       <c r="C4" t="n">
         <v>93596.74410405257</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405254</v>
+        <v>93596.74410405256</v>
       </c>
       <c r="E4" t="n">
-        <v>14826.69604186726</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="F4" t="n">
-        <v>14826.69604186726</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="G4" t="n">
-        <v>14826.69604186728</v>
+        <v>14826.69604186738</v>
       </c>
       <c r="H4" t="n">
-        <v>14826.69604186728</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="I4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186739</v>
       </c>
       <c r="J4" t="n">
         <v>14826.69604186736</v>
@@ -26445,7 +26445,7 @@
         <v>14826.69604186736</v>
       </c>
       <c r="L4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186733</v>
       </c>
       <c r="M4" t="n">
         <v>14826.69604186736</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-955546.1914880398</v>
+        <v>-955546.1914880399</v>
       </c>
       <c r="C6" t="n">
         <v>373198.5542395527</v>
       </c>
       <c r="D6" t="n">
-        <v>373198.5542395529</v>
+        <v>373198.5542395524</v>
       </c>
       <c r="E6" t="n">
-        <v>123640.9321098747</v>
+        <v>123606.1941844388</v>
       </c>
       <c r="F6" t="n">
-        <v>449053.3939172299</v>
+        <v>449018.6559917942</v>
       </c>
       <c r="G6" t="n">
-        <v>449053.3939172301</v>
+        <v>449018.6559917945</v>
       </c>
       <c r="H6" t="n">
-        <v>449053.3939172301</v>
+        <v>449018.6559917943</v>
       </c>
       <c r="I6" t="n">
-        <v>449053.3939172301</v>
+        <v>449018.6559917943</v>
       </c>
       <c r="J6" t="n">
-        <v>231522.1915199526</v>
+        <v>231487.4535945168</v>
       </c>
       <c r="K6" t="n">
-        <v>449053.3939172299</v>
+        <v>449018.6559917945</v>
       </c>
       <c r="L6" t="n">
-        <v>449053.39391723</v>
+        <v>449018.6559917944</v>
       </c>
       <c r="M6" t="n">
-        <v>363998.3659817184</v>
+        <v>363963.6280562824</v>
       </c>
       <c r="N6" t="n">
-        <v>449053.3939172299</v>
+        <v>449018.6559917941</v>
       </c>
       <c r="O6" t="n">
-        <v>449053.3939172299</v>
+        <v>449018.6559917944</v>
       </c>
       <c r="P6" t="n">
-        <v>449053.3939172304</v>
+        <v>449018.6559917943</v>
       </c>
     </row>
   </sheetData>
@@ -26787,28 +26787,28 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="C4" t="n">
         <v>831.4014554022925</v>
-      </c>
-      <c r="C4" t="n">
-        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26817,7 +26817,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26966,10 +26966,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26996,7 +26996,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,31 +27018,31 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>341.306832697356</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
         <v>341.3068326973557</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>831.4014554022921</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,19 +27382,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>240.1912326468607</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>362.0903062371264</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27442,10 +27442,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,19 +27534,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>83.94824009307443</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
@@ -27555,7 +27555,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,13 +27585,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>29.53065250301972</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27625,7 +27625,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27664,16 +27664,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>26.19303062660008</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>277.256643680326</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27698,10 +27698,10 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -27777,10 +27777,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>116.8346192169474</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27792,7 +27792,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,16 +27819,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>8.419710723306764</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>226.4291713029153</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>385.0431265889363</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28020,7 +28020,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28029,7 +28029,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>180.4042934238996</v>
+        <v>137.7769457025062</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28141,7 +28141,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28296,7 +28296,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>-1.098442470708971e-12</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -28308,7 +28308,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>1.885306725550132e-12</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -28375,7 +28375,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28482,7 +28482,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-9.159109948118501e-12</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -28500,7 +28500,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28852,7 +28852,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>-1.800799509510398e-12</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29323,7 +29323,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -29469,7 +29469,7 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>-1.641806938159438e-12</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30180,7 +30180,7 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>-2.430161791044281e-12</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31604,7 +31604,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353161</v>
       </c>
       <c r="L9" t="n">
         <v>508.9565619138795</v>
@@ -31622,7 +31622,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>734.2678383622658</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>334.7693860946154</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32078,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>362.1804684129198</v>
       </c>
       <c r="L15" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32315,19 +32315,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>454.5879800486398</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
@@ -32336,7 +32336,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32476,7 +32476,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M20" t="n">
         <v>965.6463440175675</v>
@@ -32494,7 +32494,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043738</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
         <v>125.31755462929</v>
@@ -32546,19 +32546,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>240.4469701760391</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32567,10 +32567,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>448.9178583921318</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
@@ -32783,22 +32783,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>184.4971006716334</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>240.4469701760391</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -32807,10 +32807,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32941,7 +32941,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33029,13 +33029,13 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>240.4469701760392</v>
+        <v>508.374771698973</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
@@ -33044,7 +33044,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
@@ -33178,10 +33178,10 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K29" t="n">
         <v>699.5441750817575</v>
@@ -33266,7 +33266,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>270.9716933356906</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,7 +33275,7 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>369.1789913099997</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
@@ -33284,7 +33284,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33442,7 +33442,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
         <v>125.31755462929</v>
@@ -33503,16 +33503,16 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>240.4469701760392</v>
+        <v>194.518932411125</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
@@ -33661,7 +33661,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M35" t="n">
         <v>965.6463440175675</v>
@@ -33731,13 +33731,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33746,13 +33746,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>530.4152909475304</v>
       </c>
       <c r="O36" t="n">
-        <v>332.1692388321076</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
@@ -33895,7 +33895,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L38" t="n">
         <v>867.846407116256</v>
@@ -33968,10 +33968,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
@@ -33980,22 +33980,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>332.1692388321076</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>172.8142548092792</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>233.3139244897921</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>171.4104471179097</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34384,7 +34384,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q44" t="n">
         <v>593.8732233669223</v>
@@ -34448,25 +34448,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>240.4469701760392</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>699.0496615458086</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O7" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609571</v>
       </c>
       <c r="L9" t="n">
         <v>370.4021821340053</v>
@@ -35270,7 +35270,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402476</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>200.7949786802852</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,28 +35726,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>224.3390294385608</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35963,19 +35963,19 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>311.9917356041954</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
@@ -35984,7 +35984,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36124,7 +36124,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M20" t="n">
         <v>735.3001107902948</v>
@@ -36142,7 +36142,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,19 +36194,19 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>101.8925903961649</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36215,10 +36215,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>314.9434509778015</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>37.00975247789211</v>
@@ -36367,7 +36367,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O23" t="n">
         <v>696.488651224316</v>
@@ -36431,22 +36431,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>57.6594740049667</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>101.8925903961649</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36455,10 +36455,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36589,7 +36589,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,13 +36677,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>101.892590396165</v>
+        <v>369.8203919190988</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
@@ -36692,7 +36692,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>37.00975247789211</v>
@@ -36765,7 +36765,7 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060424</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,10 +36826,10 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K29" t="n">
         <v>479.454324036777</v>
@@ -36914,7 +36914,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>132.4173135558164</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,7 +36923,7 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>226.5827468655553</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
@@ -36932,7 +36932,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37090,7 +37090,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,16 +37151,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>101.892590396165</v>
+        <v>55.96455263125078</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
@@ -37309,7 +37309,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M35" t="n">
         <v>735.3001107902948</v>
@@ -37379,13 +37379,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37394,13 +37394,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>399.073578864197</v>
       </c>
       <c r="O36" t="n">
-        <v>189.5729943876631</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
@@ -37476,7 +37476,7 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060407</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37543,7 +37543,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
@@ -37616,10 +37616,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37628,22 +37628,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>189.5729943876631</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>27.13475084531527</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>94.75954470991793</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>25.73094315394571</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38032,7 +38032,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924728</v>
@@ -38096,25 +38096,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>101.892590396165</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>556.4534171013642</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>37.00975247789211</v>
